--- a/JhtDocViewerDemo/JhtDocTemp/1.xlsx
+++ b/JhtDocViewerDemo/JhtDocTemp/1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jin/Desktop/SelfProject/JhtTools/JhtTools/JhtTemp/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jin/Desktop/SelfProject/JhtDocViewer/JhtDocViewerDemo/JhtDocTemp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,73 +24,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>靳海涛</t>
-    <rPh sb="0" eb="1">
-      <t>j'h't</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高文华</t>
-    <rPh sb="0" eb="1">
-      <t>gao'wen'hau</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张海强</t>
-    <rPh sb="0" eb="1">
-      <t>zhang'hai'qiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨翼峰</t>
-    <rPh sb="0" eb="1">
-      <t>yang'yi'feng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董玉波</t>
-    <rPh sb="0" eb="1">
-      <t>dong'yu'bo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段张鹏</t>
-    <rPh sb="0" eb="1">
-      <t>duan'zhang'peng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈世忠</t>
-    <rPh sb="0" eb="1">
-      <t>shen'shi'zhong</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>周一</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛苦</t>
+    <rPh sb="0" eb="1">
+      <t>tong'ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'sna</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到希望</t>
+    <rPh sb="0" eb="1">
+      <t>kan'dao'xi'wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难受</t>
+    <rPh sb="0" eb="1">
+      <t>nan'shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡定</t>
+    <rPh sb="0" eb="1">
+      <t>dan'ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐</t>
+    <rPh sb="0" eb="1">
+      <t>huan'le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木讷</t>
+    <rPh sb="0" eb="1">
+      <t>mu'ne</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,14 +444,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -433,50 +459,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
